--- a/Running projects/BAF Head Office/002 Quotation for exhasut ventilation system.xlsx
+++ b/Running projects/BAF Head Office/002 Quotation for exhasut ventilation system.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C9D1B-A342-4B35-8780-003C3701BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5E22E-0C9F-4E14-9857-F877AEA64616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$19:$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>S. #</t>
   </si>
@@ -98,9 +98,6 @@
     <t>002</t>
   </si>
   <si>
-    <t>13 May 2024</t>
-  </si>
-  <si>
     <t>SFT</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>Supply and installation of Ventilation system at basement Bank Al-Falah Head Office Karachi.</t>
+  </si>
+  <si>
+    <t>Existing fan repairing and refixing</t>
+  </si>
+  <si>
+    <t>Painting of LT room panels including repairing of insulation and diffuser.</t>
+  </si>
+  <si>
+    <t>08 June 2024</t>
+  </si>
+  <si>
+    <t>Power / control wiring for new fans from existing panel.</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -724,6 +733,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -900,66 +922,6 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,36 +936,96 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,13 +1051,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>58740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>505208</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>146052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1520,16 +1542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R54"/>
+  <dimension ref="A4:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
@@ -1560,12 +1582,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="27"/>
       <c r="D6" s="24"/>
       <c r="F6" s="32"/>
@@ -1586,16 +1608,16 @@
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74"/>
@@ -1644,7 +1666,7 @@
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -1697,37 +1719,37 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>9</v>
@@ -1745,18 +1767,18 @@
         <f>E20*D20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="66">
         <f>F20*D20</f>
         <v>20000</v>
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>9</v>
@@ -1774,52 +1796,52 @@
         <f>E21*D21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="66">
         <f>F21*D21</f>
         <v>100000</v>
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="19">
-        <v>140000</v>
+        <v>165000</v>
       </c>
       <c r="F22" s="19">
         <v>10000</v>
       </c>
       <c r="G22" s="19">
         <f>E22*D22</f>
-        <v>1120000</v>
-      </c>
-      <c r="H22" s="86">
+        <v>1155000</v>
+      </c>
+      <c r="H22" s="66">
         <f>F22*D22</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="18">
-        <v>1660</v>
+        <v>1765</v>
       </c>
       <c r="E23" s="19">
         <v>450</v>
@@ -1829,23 +1851,23 @@
       </c>
       <c r="G23" s="19">
         <f>E23*D23</f>
-        <v>747000</v>
-      </c>
-      <c r="H23" s="86">
+        <v>794250</v>
+      </c>
+      <c r="H23" s="66">
         <f>F23*D23</f>
-        <v>132800</v>
+        <v>141200</v>
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -1857,24 +1879,24 @@
         <v>15000</v>
       </c>
       <c r="G24" s="19">
-        <f t="shared" ref="G24:G29" si="0">E24*D24</f>
+        <f t="shared" ref="G24:G32" si="0">E24*D24</f>
         <v>35000</v>
       </c>
-      <c r="H24" s="86">
-        <f t="shared" ref="H24:H29" si="1">F24*D24</f>
+      <c r="H24" s="66">
+        <f t="shared" ref="H24:H32" si="1">F24*D24</f>
         <v>15000</v>
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>6</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -1889,18 +1911,18 @@
         <f t="shared" ref="G25:G27" si="2">E25*D25</f>
         <v>15000</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="66">
         <f t="shared" ref="H25:H27" si="3">F25*D25</f>
         <v>7000</v>
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>7</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>9</v>
@@ -1918,487 +1940,574 @@
         <f t="shared" si="2"/>
         <v>48000</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="66">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>8</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="18">
         <v>1</v>
       </c>
       <c r="E27" s="19">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="F27" s="19">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="H27" s="86">
+        <v>8000</v>
+      </c>
+      <c r="H27" s="66">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>9</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F28" s="19">
         <v>15000</v>
       </c>
       <c r="G28" s="19">
+        <f t="shared" ref="G28" si="4">E28*D28</f>
+        <v>20000</v>
+      </c>
+      <c r="H28" s="66">
+        <f t="shared" ref="H28" si="5">F28*D28</f>
+        <v>15000</v>
+      </c>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>10</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>15000</v>
+      </c>
+      <c r="F29" s="19">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H29" s="66">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93">
-        <v>10</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="93">
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>11</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="18">
+        <v>8</v>
+      </c>
+      <c r="E30" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="19">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H30" s="66">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>12</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="18">
+        <v>8</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" ref="G31" si="6">E31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="66">
+        <f t="shared" ref="H31" si="7">F31*D31</f>
+        <v>40000</v>
+      </c>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>13</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="96">
         <v>1</v>
       </c>
-      <c r="E29" s="95">
+      <c r="E32" s="97">
+        <v>70000</v>
+      </c>
+      <c r="F32" s="97">
+        <v>50000</v>
+      </c>
+      <c r="G32" s="97">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="H32" s="98">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="70">
+        <f>SUM(G20:G32)</f>
+        <v>2200250</v>
+      </c>
+      <c r="H33" s="70">
+        <f>SUM(H20:H32)</f>
+        <v>522200</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="21">
         <v>0</v>
       </c>
-      <c r="F29" s="95">
-        <v>30000</v>
-      </c>
-      <c r="G29" s="95">
-        <f t="shared" si="0"/>
+      <c r="H34" s="21">
+        <f>H33*13%</f>
+        <v>67886</v>
+      </c>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="21">
+        <f>G34+G33</f>
+        <v>2200250</v>
+      </c>
+      <c r="H35" s="21">
+        <f>H34+H33</f>
+        <v>590086</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71">
+        <f>H35+G35</f>
+        <v>2790336</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="96">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+      <c r="B41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="52">
+        <v>1</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1</v>
+      </c>
+      <c r="E42" s="40">
+        <v>350000</v>
+      </c>
+      <c r="F42" s="40">
+        <v>8000</v>
+      </c>
+      <c r="G42" s="40">
+        <f>E42*D42</f>
+        <v>350000</v>
+      </c>
+      <c r="H42" s="41">
+        <f>F42*D42</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55">
+        <v>2</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="57">
+        <v>1</v>
+      </c>
+      <c r="E43" s="58">
+        <v>980000</v>
+      </c>
+      <c r="F43" s="58">
+        <v>15000</v>
+      </c>
+      <c r="G43" s="58">
+        <f>E43*D43</f>
+        <v>980000</v>
+      </c>
+      <c r="H43" s="59">
+        <f>F43*D43</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="97">
-        <f>SUM(G20:G29)</f>
-        <v>2000000</v>
-      </c>
-      <c r="H30" s="97">
-        <f>SUM(H20:H29)</f>
-        <v>423800</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="47">
+        <f>SUM(G42:G44)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H45" s="48">
+        <f>SUM(H42:H44)</f>
+        <v>23000</v>
+      </c>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="21">
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="21">
         <v>0</v>
       </c>
-      <c r="H31" s="21">
-        <f>H30*13%</f>
-        <v>55094</v>
-      </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+      <c r="H46" s="49">
+        <f>H45*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="86" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="21">
-        <f>G31+G30</f>
-        <v>2000000</v>
-      </c>
-      <c r="H32" s="21">
-        <f>H31+H30</f>
-        <v>478894</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98">
-        <f>H32+G32</f>
-        <v>2478894</v>
-      </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-    </row>
-    <row r="37" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="52">
-        <v>1</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F39" s="40">
-        <v>8000</v>
-      </c>
-      <c r="G39" s="40">
-        <f>E39*D39</f>
-        <v>350000</v>
-      </c>
-      <c r="H39" s="41">
-        <f>F39*D39</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55">
-        <v>2</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="57">
-        <v>1</v>
-      </c>
-      <c r="E40" s="58">
-        <v>980000</v>
-      </c>
-      <c r="F40" s="58">
-        <v>15000</v>
-      </c>
-      <c r="G40" s="58">
-        <f>E40*D40</f>
-        <v>980000</v>
-      </c>
-      <c r="H40" s="59">
-        <f>F40*D40</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="47">
-        <f>SUM(G39:G41)</f>
-        <v>1330000</v>
-      </c>
-      <c r="H42" s="48">
-        <f>SUM(H39:H41)</f>
-        <v>23000</v>
-      </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="21">
-        <v>0</v>
-      </c>
-      <c r="H43" s="49">
-        <f>H42*13%</f>
-        <v>2990</v>
-      </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="50">
-        <f>G43+G42</f>
-        <v>1330000</v>
-      </c>
-      <c r="H44" s="51">
-        <f>H43+H42</f>
-        <v>25990</v>
-      </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54">
-        <f>H44+G44</f>
-        <v>1355990</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="87" t="s">
-        <v>38</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="87"/>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="50">
+        <f>G46+G45</f>
+        <v>1330000</v>
+      </c>
+      <c r="H47" s="51">
+        <f>H46+H45</f>
+        <v>25990</v>
+      </c>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="1:18" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="88" t="s">
+    <row r="48" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54">
+        <f>H47+G47</f>
+        <v>1355990</v>
+      </c>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:18" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="91"/>
-      <c r="M49" s="89"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F50" s="8"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="9"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="14"/>
-      <c r="M51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M52" s="2"/>
-      <c r="O52" s="14"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="69"/>
+      <c r="M52" s="67"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O54" s="14"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="9"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="14"/>
+      <c r="M54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M55" s="2"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A14:H15"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="7" man="1"/>
+    <brk id="55" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/BAF Head Office/002 Quotation for exhasut ventilation system.xlsx
+++ b/Running projects/BAF Head Office/002 Quotation for exhasut ventilation system.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5E22E-0C9F-4E14-9857-F877AEA64616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B717E-ABBF-421F-9F30-D9446803AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$56</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$23:$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>S. #</t>
   </si>
@@ -51,13 +51,7 @@
     <t>Nos</t>
   </si>
   <si>
-    <t>Quotation</t>
-  </si>
-  <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Quotation #</t>
   </si>
   <si>
     <t>Grand Total Amount Rs</t>
@@ -134,22 +128,25 @@
     <t>Testing and commissioning of fresh / exhaust air fans</t>
   </si>
   <si>
-    <t>Note: Electrical work not included in the quote.</t>
-  </si>
-  <si>
     <t>Supply and installation of Ventilation system at basement Bank Al-Falah Head Office Karachi.</t>
   </si>
   <si>
-    <t>Existing fan repairing and refixing</t>
-  </si>
-  <si>
-    <t>Painting of LT room panels including repairing of insulation and diffuser.</t>
-  </si>
-  <si>
-    <t>08 June 2024</t>
-  </si>
-  <si>
-    <t>Power / control wiring for new fans from existing panel.</t>
+    <t>SST 15% on Labour</t>
+  </si>
+  <si>
+    <t>23 Oct 2024</t>
+  </si>
+  <si>
+    <t>Invoice #</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>Note: Electrical work not included in the scope.</t>
+  </si>
+  <si>
+    <t>M/S Bank Al Falah Limited</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -301,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -733,19 +723,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -755,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -826,9 +803,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -915,9 +889,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -946,10 +917,19 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -964,9 +944,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,23 +986,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,16 +1017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58740</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>505208</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146052</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>767145</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,7 +1055,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="147638" y="9837740"/>
+          <a:off x="11561763" y="8686802"/>
           <a:ext cx="643320" cy="595312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1099,16 +1067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>822321</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135515</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>790571</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>92070</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1125,8 +1093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1108071" y="135515"/>
-          <a:ext cx="4445000" cy="586798"/>
+          <a:off x="9513883" y="730828"/>
+          <a:ext cx="5603875" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,16 +1170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>246064</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>869948</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43221</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266697</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1235,7 +1203,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="246064" y="7938"/>
+          <a:off x="8651876" y="603251"/>
           <a:ext cx="909634" cy="749658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1542,24 +1510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R57"/>
+  <dimension ref="A4:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1571,448 +1538,342 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="60" t="s">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+    </row>
+    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="G14" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-    </row>
-    <row r="9" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="G10" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="75"/>
-    </row>
-    <row r="11" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-    </row>
-    <row r="13" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-    </row>
-    <row r="18" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="18">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19">
         <v>0</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="F24" s="19">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="19">
+        <f>E24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="64">
+        <f>F24*D24</f>
+        <v>20000</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="B25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>25000</v>
+      </c>
+      <c r="G25" s="19">
+        <f>E25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="64">
+        <f>F25*D25</f>
+        <v>100000</v>
+      </c>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>3</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>1</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="18">
-        <v>4</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="19">
-        <f>E20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="66">
-        <f>F20*D20</f>
-        <v>20000</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>2</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="18">
-        <v>4</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>25000</v>
-      </c>
-      <c r="G21" s="19">
-        <f>E21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="66">
-        <f>F21*D21</f>
-        <v>100000</v>
-      </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>3</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="18">
-        <v>7</v>
-      </c>
-      <c r="E22" s="19">
-        <v>165000</v>
-      </c>
-      <c r="F22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="19">
-        <f>E22*D22</f>
-        <v>1155000</v>
-      </c>
-      <c r="H22" s="66">
-        <f>F22*D22</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>4</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1765</v>
-      </c>
-      <c r="E23" s="19">
-        <v>450</v>
-      </c>
-      <c r="F23" s="19">
-        <v>80</v>
-      </c>
-      <c r="G23" s="19">
-        <f>E23*D23</f>
-        <v>794250</v>
-      </c>
-      <c r="H23" s="66">
-        <f>F23*D23</f>
-        <v>141200</v>
-      </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>5</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="18">
-        <v>1</v>
-      </c>
-      <c r="E24" s="19">
-        <v>35000</v>
-      </c>
-      <c r="F24" s="19">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" ref="G24:G32" si="0">E24*D24</f>
-        <v>35000</v>
-      </c>
-      <c r="H24" s="66">
-        <f t="shared" ref="H24:H32" si="1">F24*D24</f>
-        <v>15000</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>6</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19">
-        <v>15000</v>
-      </c>
-      <c r="F25" s="19">
-        <v>7000</v>
-      </c>
-      <c r="G25" s="19">
-        <f t="shared" ref="G25:G27" si="2">E25*D25</f>
-        <v>15000</v>
-      </c>
-      <c r="H25" s="66">
-        <f t="shared" ref="H25:H27" si="3">F25*D25</f>
-        <v>7000</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>7</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="18">
+        <v>8</v>
+      </c>
+      <c r="E26" s="19">
+        <v>140000</v>
+      </c>
+      <c r="F26" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="19">
+        <f>E26*D26</f>
+        <v>1120000</v>
+      </c>
+      <c r="H26" s="64">
+        <f>F26*D26</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>4</v>
       </c>
-      <c r="E26" s="19">
-        <v>12000</v>
-      </c>
-      <c r="F26" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="19">
-        <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-      <c r="H26" s="66">
-        <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>8</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>35</v>
+      <c r="B27" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1758</v>
+      </c>
+      <c r="E27" s="19">
+        <v>450</v>
+      </c>
+      <c r="F27" s="19">
+        <v>80</v>
+      </c>
+      <c r="G27" s="19">
+        <f>E27*D27</f>
+        <v>791100</v>
+      </c>
+      <c r="H27" s="64">
+        <f>F27*D27</f>
+        <v>140640</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>5</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19">
-        <v>8000</v>
-      </c>
-      <c r="F27" s="19">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="H27" s="66">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>9</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="F28" s="19">
         <v>15000</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" ref="G28" si="4">E28*D28</f>
-        <v>20000</v>
-      </c>
-      <c r="H28" s="66">
-        <f t="shared" ref="H28" si="5">F28*D28</f>
+        <f t="shared" ref="G28:G32" si="0">E28*D28</f>
+        <v>35000</v>
+      </c>
+      <c r="H28" s="64">
+        <f t="shared" ref="H28:H32" si="1">F28*D28</f>
         <v>15000</v>
       </c>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
-        <v>10</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -2021,493 +1882,526 @@
         <v>15000</v>
       </c>
       <c r="F29" s="19">
+        <v>7000</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" ref="G29:G31" si="2">E29*D29</f>
         <v>15000</v>
       </c>
-      <c r="G29" s="19">
+      <c r="H29" s="64">
+        <f t="shared" ref="H29:H31" si="3">F29*D29</f>
+        <v>7000</v>
+      </c>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>7</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>12000</v>
+      </c>
+      <c r="F30" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>8</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="19">
+        <v>20000</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>9</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="19">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H32" s="64">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
+        <v>10</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <v>30000</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33" si="4">E33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="64">
+        <f t="shared" ref="H33" si="5">F33*D33</f>
+        <v>30000</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="68">
+        <f>SUM(G24:G33)</f>
+        <v>1996100</v>
+      </c>
+      <c r="H34" s="68">
+        <f>SUM(H24:H33)</f>
+        <v>427640</v>
+      </c>
+      <c r="I34" s="14">
+        <f>H34+G34</f>
+        <v>2423740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <f>H34*15%</f>
+        <v>64146</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="21">
+        <f>G35+G34</f>
+        <v>1996100</v>
+      </c>
+      <c r="H36" s="21">
+        <f>H35+H34</f>
+        <v>491786</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="18">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69">
+        <f>H36+G36</f>
+        <v>2487886</v>
+      </c>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51">
+        <v>1</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="38">
+        <v>1</v>
+      </c>
+      <c r="E43" s="39">
+        <v>350000</v>
+      </c>
+      <c r="F43" s="39">
+        <v>8000</v>
+      </c>
+      <c r="G43" s="39">
+        <f>E43*D43</f>
+        <v>350000</v>
+      </c>
+      <c r="H43" s="40">
+        <f>F43*D43</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54">
+        <v>2</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="56">
+        <v>1</v>
+      </c>
+      <c r="E44" s="57">
+        <v>980000</v>
+      </c>
+      <c r="F44" s="57">
+        <v>15000</v>
+      </c>
+      <c r="G44" s="57">
+        <f>E44*D44</f>
+        <v>980000</v>
+      </c>
+      <c r="H44" s="58">
+        <f>F44*D44</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="19">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="H30" s="66">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="46">
+        <f>SUM(G43:G45)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H46" s="47">
+        <f>SUM(H43:H45)</f>
+        <v>23000</v>
+      </c>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="21">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48">
+        <f>H46*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="18">
-        <v>8</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>5000</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" ref="G31" si="6">E31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="66">
-        <f t="shared" ref="H31" si="7">F31*D31</f>
-        <v>40000</v>
-      </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>13</v>
-      </c>
-      <c r="B32" s="95" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="49">
+        <f>G47+G46</f>
+        <v>1330000</v>
+      </c>
+      <c r="H48" s="50">
+        <f>H47+H46</f>
+        <v>25990</v>
+      </c>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53">
+        <f>H48+G48</f>
+        <v>1355990</v>
+      </c>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="96">
-        <v>1</v>
-      </c>
-      <c r="E32" s="97">
-        <v>70000</v>
-      </c>
-      <c r="F32" s="97">
-        <v>50000</v>
-      </c>
-      <c r="G32" s="97">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-      <c r="H32" s="98">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="70">
-        <f>SUM(G20:G32)</f>
-        <v>2200250</v>
-      </c>
-      <c r="H33" s="70">
-        <f>SUM(H20:H32)</f>
-        <v>522200</v>
-      </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
-        <f>H33*13%</f>
-        <v>67886</v>
-      </c>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="21">
-        <f>G34+G33</f>
-        <v>2200250</v>
-      </c>
-      <c r="H35" s="21">
-        <f>H34+H33</f>
-        <v>590086</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71">
-        <f>H35+G35</f>
-        <v>2790336</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-    </row>
-    <row r="40" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="52">
-        <v>1</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="39">
-        <v>1</v>
-      </c>
-      <c r="E42" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F42" s="40">
-        <v>8000</v>
-      </c>
-      <c r="G42" s="40">
-        <f>E42*D42</f>
-        <v>350000</v>
-      </c>
-      <c r="H42" s="41">
-        <f>F42*D42</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55">
-        <v>2</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="57">
-        <v>1</v>
-      </c>
-      <c r="E43" s="58">
-        <v>980000</v>
-      </c>
-      <c r="F43" s="58">
-        <v>15000</v>
-      </c>
-      <c r="G43" s="58">
-        <f>E43*D43</f>
-        <v>980000</v>
-      </c>
-      <c r="H43" s="59">
-        <f>F43*D43</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="47">
-        <f>SUM(G42:G44)</f>
-        <v>1330000</v>
-      </c>
-      <c r="H45" s="48">
-        <f>SUM(H42:H44)</f>
-        <v>23000</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="21">
-        <v>0</v>
-      </c>
-      <c r="H46" s="49">
-        <f>H45*13%</f>
-        <v>2990</v>
-      </c>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="50">
-        <f>G46+G45</f>
-        <v>1330000</v>
-      </c>
-      <c r="H47" s="51">
-        <f>H46+H45</f>
-        <v>25990</v>
-      </c>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54">
-        <f>H47+G47</f>
-        <v>1355990</v>
-      </c>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:18" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:18" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:18" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="69"/>
-      <c r="M52" s="67"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F53" s="8"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="9"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="14"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="67"/>
+      <c r="M53" s="65"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F54" s="8"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="9"/>
       <c r="M54" s="2"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="14"/>
       <c r="M55" s="2"/>
-      <c r="O55" s="14"/>
+      <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M56" s="2"/>
       <c r="O56" s="14"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O57" s="14"/>
     </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O58" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:H8"/>
+  <mergeCells count="21">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H19"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H15"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="55" max="7" man="1"/>
+    <brk id="56" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
